--- a/InputFiles/TC01_INS_Filter_Prog-CCDI.xlsx
+++ b/InputFiles/TC01_INS_Filter_Prog-CCDI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B28DB40-A947-45AB-B1E2-9B76C717AE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4525E16B-6EEE-422F-ACA5-CBE816F20D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/InputFiles/TC01_INS_Filter_Prog-CCDI.xlsx
+++ b/InputFiles/TC01_INS_Filter_Prog-CCDI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\radhakrishnang2\Desktop\Commons_Automation\InputFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sohilz2\Commons_Automation\InputFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4525E16B-6EEE-422F-ACA5-CBE816F20D5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E722D54A-B153-42ED-BDBE-737CD89778FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="16354" yWindow="-4860" windowWidth="33120" windowHeight="18120" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="startup" sheetId="1" r:id="rId1"/>
@@ -58,22 +58,6 @@
     <t>TC01_INS_Filter_Prog-CCDI_WebData.xlsx</t>
   </si>
   <si>
-    <t>MATCH (p:project)--&gt;(pgm:program)
-where pgm.program_id='CCDI'
-WITH DISTINCT p, pgm
-RETURN
-coalesce(p.project_id, '') AS `Project ID`,
-coalesce (pgm.program_id, '')AS `Program`,
-coalesce(p.project_title, '') AS `Project Title`,
-coalesce(p.principal_investigators, '') AS `Principal Investigators`,
-coalesce(p.program_officers, '') AS `Program Officers`,
-coalesce(p.lead_doc, '')AS `Lead DOC`,
-SUBSTRING(p.project_id, 1, 3) AS `Activity code`,
-"$" + apoc.number.format(toInteger(p.award_amount)) AS `Award Amount`,
-coalesce(p.project_end_date, '') AS `Project End Date`,
-coalesce(p.fiscal_year,'')AS `Fiscal Year`</t>
-  </si>
-  <si>
     <t>MATCH (p:program)&lt;--(pr:project)
 where p.program_id='CCDI'
 OPTIONAL MATCH (pr)&lt;--(pub:publication)
@@ -91,6 +75,22 @@
  COUNT(DISTINCT dt.accession) as Datasets,
   COUNT(DISTINCT ct.clinical_trial_id) as `Clinical Trials`,
 COUNT(DISTINCT pat.patent_id) as Patents</t>
+  </si>
+  <si>
+    <t>MATCH (p:project)--&gt;(pgm:program)
+where pgm.program_id='CCDI'
+WITH DISTINCT p, pgm
+RETURN
+coalesce(p.project_id, '') AS `Project ID`,
+coalesce (pgm.program_id, '')AS `Program`,
+coalesce(p.project_title, '') AS `Project Title`,
+coalesce(p.principal_investigators, '') AS `Principal Investigators`,
+coalesce(p.program_officers, '') AS `Program Officers`,
+coalesce(p.lead_doc, '')AS `Lead DOC`,
+SUBSTRING(p.project_id, 1, 3) AS `Activity code`,
+"$" + apoc.number.format(toInteger(p.award_amount)) AS `Award Amount`,
+coalesce(p.project_end_date, '') AS `Project End Date`,
+coalesce(p.fiscal_year,'')AS `Fiscal Year` Order By p.project_id Asc LIMIT 100</t>
   </si>
 </sst>
 </file>
@@ -464,19 +464,19 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="92.42578125" customWidth="1"/>
-    <col min="3" max="3" width="86.140625" customWidth="1"/>
-    <col min="4" max="4" width="70.28515625" customWidth="1"/>
-    <col min="5" max="5" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.44140625" customWidth="1"/>
+    <col min="3" max="3" width="86.109375" customWidth="1"/>
+    <col min="4" max="4" width="70.33203125" customWidth="1"/>
+    <col min="5" max="5" width="40.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -493,15 +493,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -510,7 +510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
     </row>
   </sheetData>
@@ -526,7 +526,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
